--- a/Address_data_full.xlsx
+++ b/Address_data_full.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexdezho/PycharmProjects/Analiza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791E3936-4801-EA41-B942-9C294E8F2784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81974D11-958C-054D-BEFC-6437FE82A6F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="660" windowWidth="30120" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="1" r:id="rId1"/>
+    <sheet name="451 clear blue way" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="173">
   <si>
     <t>Info</t>
   </si>
@@ -197,13 +198,356 @@
   </si>
   <si>
     <t>Schools</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>http://www.onboardnavigator.com/webcontent/OBWC_Search.aspx?AID=102</t>
+  </si>
+  <si>
+    <t>http://www.onboardnavigator.com/webcontent/OBWC_Search.aspx?&amp;AID=102</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>175.0</t>
+  </si>
+  <si>
+    <t>https://www.city-data.com/city/McDonough-Georgia.html</t>
+  </si>
+  <si>
+    <t>City-Data.com crime index (higher means more crime, U.S. average = 274.0)</t>
+  </si>
+  <si>
+    <t>http://www.city-data.com/city/McDonough-Georgia.html</t>
+  </si>
+  <si>
+    <t>According to our research of Georgia and other state lists, there were 97 registered sex offenders living in McDonough, Georgia as of December 22, 2020.
+The ratio of all residents to sex offenders in McDonough is 243 to 1.</t>
+  </si>
+  <si>
+    <t>grades_big grade_big_B</t>
+  </si>
+  <si>
+    <t>https://www.homefacts.com/</t>
+  </si>
+  <si>
+    <t>73.87</t>
+  </si>
+  <si>
+    <t>https://www.homefacts.com/crime/Georgia/Henry-County/Mcdonough.html</t>
+  </si>
+  <si>
+    <t>26.13% LOWER</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>https://www.neighborhoodscout.com/ga/mcdonough/crime</t>
+  </si>
+  <si>
+    <t>https://www.neighborhoodscout.com/</t>
+  </si>
+  <si>
+    <t>kelleytown#crime"},{"@type":"ListItem","position":2,"name":"Ola","url":"https://www.neighborhoodscout.com/ga/mcdonough/ola#crime"},{"@type":"ListItem","position":3,"name":"Peeksville Rd / Old Jackson Rd","url":"https://www.neighborhoodscout.com/ga/mcdonough/peeksville-rd#crime"},{"@type":"ListItem","position":4,"name":"Decatur Rd / Judy Dr","url":"https://www.neighborhoodscout.com/ga/mcdonough/decatur-rd#crime"},{"@type":"ListItem","position":5,"name":"Route 23 / Old Mcdonough Rd","url":"https://www.neighborhoodscout.com/ga/mcdonough/route-23#crime"},{"@type":"ListItem","position":6,"name":"Route 81 / Hampton Rd","url":"https://www.neighborhoodscout.com/ga/mcdonough/route-81#crime"},{"@type":"ListItem","position":7,"name":"City Center","url":"https://www.neighborhoodscout.com/ga/mcdonough/city-center#crime"},{"@type":"ListItem","position":8,"name":"Hampton St / Bridges Rd","url":"https://www.neighborhoodscout.com/ga/mcdonough/hampton-st#crime"}</t>
+  </si>
+  <si>
+    <t>McDonough violent crime is 17.7. (The US average is 22.7)</t>
+  </si>
+  <si>
+    <t>https://www.bestplaces.net/crime/</t>
+  </si>
+  <si>
+    <t>McDonough property crime is 48.1. (The US average is 35.4)</t>
+  </si>
+  <si>
+    <t>https://www.bestplaces.net/city/georgia/mcdonough</t>
+  </si>
+  <si>
+    <t>https://www.bestplaces.net/city/img.aspx?p=1348624_GA_McDonough</t>
+  </si>
+  <si>
+    <t>https://www.bestplaces.net/crime/city/georgia/mcdonough</t>
+  </si>
+  <si>
+    <t>451 clear blue way</t>
+  </si>
+  <si>
+    <t>mcdonough</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>https://www.greatschools.org/</t>
+  </si>
+  <si>
+    <t>Walnut Creek Elementary</t>
+  </si>
+  <si>
+    <t>https://www.schooldigger.com/</t>
+  </si>
+  <si>
+    <t>https://www.schooldigger.com/go/GA/schools/0282003413/school.aspx</t>
+  </si>
+  <si>
+    <t>McDonough Middle School</t>
+  </si>
+  <si>
+    <t>https://www.schooldigger.com/go/GA/schools/0282001206/school.aspx</t>
+  </si>
+  <si>
+    <t>McDonough High School</t>
+  </si>
+  <si>
+    <t>https://www.schooldigger.com/go/GA/schools/0282001208/school.aspx</t>
+  </si>
+  <si>
+    <t>East Lake Elementary School</t>
+  </si>
+  <si>
+    <t>text-center school_badges_big grade_big_B_Plus</t>
+  </si>
+  <si>
+    <t>Union Grove Middle School</t>
+  </si>
+  <si>
+    <t>Ola High School</t>
+  </si>
+  <si>
+    <t>text-center school_badges_big grade_big_A_Minus</t>
+  </si>
+  <si>
+    <t>Cant be activated at this moment , cant automate the searches ,have different xpaths all the time</t>
+  </si>
+  <si>
+    <t>https://www.niche.com/</t>
+  </si>
+  <si>
+    <t>https://www.niche.com/k12/d/henry-county-schools-ga/</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>HOMETOWN LOCATOR</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Census track</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>*Comments</t>
+  </si>
+  <si>
+    <t>5,508 (100%)</t>
+  </si>
+  <si>
+    <t>118,650</t>
+  </si>
+  <si>
+    <t>62,024 (100%)</t>
+  </si>
+  <si>
+    <t>29,314 (100%)</t>
+  </si>
+  <si>
+    <t>243,628 (100%)</t>
+  </si>
+  <si>
+    <t>6,049,686 (100%)</t>
+  </si>
+  <si>
+    <t>1.07%(per year)</t>
+  </si>
+  <si>
+    <t>2.2%(per year)</t>
+  </si>
+  <si>
+    <t>2.26%(per year)</t>
+  </si>
+  <si>
+    <t>2.92%(per year)</t>
+  </si>
+  <si>
+    <t>1.75%(per year)</t>
+  </si>
+  <si>
+    <t>1.32%(per year)</t>
+  </si>
+  <si>
+    <t>1.22%(per year)</t>
+  </si>
+  <si>
+    <t>1.76%(per year)</t>
+  </si>
+  <si>
+    <t>1.91%(per year)</t>
+  </si>
+  <si>
+    <t>1.92%(per year)</t>
+  </si>
+  <si>
+    <t>1.41%(per year)</t>
+  </si>
+  <si>
+    <t>$55,145</t>
+  </si>
+  <si>
+    <t>$81,551</t>
+  </si>
+  <si>
+    <t>$70,511</t>
+  </si>
+  <si>
+    <t>$63,043</t>
+  </si>
+  <si>
+    <t>$76,080</t>
+  </si>
+  <si>
+    <t>$70,630</t>
+  </si>
+  <si>
+    <t>$70,712</t>
+  </si>
+  <si>
+    <t>$102,507</t>
+  </si>
+  <si>
+    <t>$93,019</t>
+  </si>
+  <si>
+    <t>$84,267</t>
+  </si>
+  <si>
+    <t>$96,052</t>
+  </si>
+  <si>
+    <t>$99,058</t>
+  </si>
+  <si>
+    <t>2,246 (100%)</t>
+  </si>
+  <si>
+    <t>43,065 (100%)</t>
+  </si>
+  <si>
+    <t>23,163 (100%)</t>
+  </si>
+  <si>
+    <t>11,561 (100%)</t>
+  </si>
+  <si>
+    <t>89,699 (100%)</t>
+  </si>
+  <si>
+    <t>2,439,548 (100%)</t>
+  </si>
+  <si>
+    <t>938 (41.8%)</t>
+  </si>
+  <si>
+    <t>30,867 (71.7%)</t>
+  </si>
+  <si>
+    <t>15,017 (64.8%)</t>
+  </si>
+  <si>
+    <t>6,674 (57.7%)</t>
+  </si>
+  <si>
+    <t>63,001 (70.2%)</t>
+  </si>
+  <si>
+    <t>1,439,882 (59.0%)</t>
+  </si>
+  <si>
+    <t>1,133 (50.4%)</t>
+  </si>
+  <si>
+    <t>9,565 (22.2%)</t>
+  </si>
+  <si>
+    <t>6,467 (27.9%)</t>
+  </si>
+  <si>
+    <t>3,973 (34.4%)</t>
+  </si>
+  <si>
+    <t>20,370 (22.7%)</t>
+  </si>
+  <si>
+    <t>789,237 (32.4%)</t>
+  </si>
+  <si>
+    <t>175 ( 7.8%)</t>
+  </si>
+  <si>
+    <t>2,633 ( 6.1%)</t>
+  </si>
+  <si>
+    <t>1,679 ( 7.2%)</t>
+  </si>
+  <si>
+    <t>913 ( 7.9%)</t>
+  </si>
+  <si>
+    <t>6,328 ( 7.1%)</t>
+  </si>
+  <si>
+    <t>210,429 ( 8.6%)</t>
+  </si>
+  <si>
+    <t>$144,598</t>
+  </si>
+  <si>
+    <t>$201,118</t>
+  </si>
+  <si>
+    <t>$182,856</t>
+  </si>
+  <si>
+    <t>$172,046</t>
+  </si>
+  <si>
+    <t>$189,209</t>
+  </si>
+  <si>
+    <t>$235,337</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/451+Clear+Blue+Way,+McDonough,+GA+30253,+USA/@33.4500017,-84.162095,21z/data=!4m5!3m4!1s0x88f45a46fdfa89cb:0x798192984c4bcdd6!8m2!3d33.4500017!4d-84.1619582</t>
+  </si>
+  <si>
+    <t>Henry County</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Metro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -291,6 +635,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -332,7 +735,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -377,16 +780,227 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -424,49 +1038,182 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
     <cellStyle name="Accent3" xfId="4" builtinId="37"/>
     <cellStyle name="Accent6" xfId="5" builtinId="49"/>
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -781,32 +1528,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" s="11" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -829,15 +1576,15 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
@@ -849,7 +1596,7 @@
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1"/>
@@ -860,7 +1607,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="10"/>
@@ -871,7 +1618,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="10"/>
@@ -882,7 +1629,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="10"/>
@@ -893,7 +1640,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="10"/>
@@ -904,7 +1651,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="10"/>
@@ -915,7 +1662,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="10"/>
@@ -926,7 +1673,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="10"/>
@@ -937,7 +1684,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1"/>
@@ -948,7 +1695,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1"/>
@@ -959,7 +1706,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1"/>
@@ -979,24 +1726,24 @@
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="E18" s="16" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="E18" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="21" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="14"/>
@@ -1008,7 +1755,7 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F20" s="1"/>
@@ -1020,7 +1767,7 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="22" t="s">
         <v>44</v>
       </c>
       <c r="F21" s="1"/>
@@ -1032,7 +1779,7 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="22" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="1"/>
@@ -1044,19 +1791,19 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="22" t="s">
         <v>46</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="22" t="s">
         <v>47</v>
       </c>
       <c r="F24" s="1"/>
@@ -1068,7 +1815,7 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="22" t="s">
         <v>48</v>
       </c>
       <c r="F25" s="1"/>
@@ -1080,7 +1827,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="21" t="s">
         <v>49</v>
       </c>
       <c r="F26" s="6"/>
@@ -1092,7 +1839,7 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F27" s="1"/>
@@ -1104,19 +1851,19 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="22" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="22" t="s">
         <v>45</v>
       </c>
       <c r="F29" s="1"/>
@@ -1128,7 +1875,7 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="22" t="s">
         <v>46</v>
       </c>
       <c r="F30" s="1"/>
@@ -1140,7 +1887,7 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="22" t="s">
         <v>47</v>
       </c>
       <c r="F31" s="1"/>
@@ -1152,7 +1899,7 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="22" t="s">
         <v>48</v>
       </c>
       <c r="F32" s="1"/>
@@ -1164,7 +1911,7 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F33" s="6"/>
@@ -1176,7 +1923,7 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F34" s="1"/>
@@ -1188,7 +1935,7 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="22" t="s">
         <v>44</v>
       </c>
       <c r="F35" s="1"/>
@@ -1200,19 +1947,19 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="22" t="s">
         <v>45</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="22" t="s">
         <v>46</v>
       </c>
       <c r="F37" s="1"/>
@@ -1224,7 +1971,7 @@
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="22" t="s">
         <v>47</v>
       </c>
       <c r="F38" s="1"/>
@@ -1236,19 +1983,19 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="22" t="s">
         <v>48</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="21" t="s">
         <v>50</v>
       </c>
       <c r="F40" s="6"/>
@@ -1260,7 +2007,7 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="22" t="s">
         <v>51</v>
       </c>
       <c r="F41" s="1"/>
@@ -1272,7 +2019,7 @@
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F42" s="1"/>
@@ -1284,19 +2031,19 @@
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="22" t="s">
         <v>53</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="22" t="s">
         <v>54</v>
       </c>
       <c r="F44" s="1"/>
@@ -1308,7 +2055,7 @@
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="22" t="s">
         <v>55</v>
       </c>
       <c r="F45" s="1"/>
@@ -1320,7 +2067,7 @@
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="21" t="s">
         <v>0</v>
       </c>
       <c r="F46" s="6"/>
@@ -1332,7 +2079,7 @@
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="22" t="s">
         <v>1</v>
       </c>
       <c r="F47" s="1"/>
@@ -1342,14 +2089,14 @@
       <c r="A48" s="9"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
-      <c r="E48" s="25" t="s">
+      <c r="E48" s="22" t="s">
         <v>3</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E49" s="26" t="s">
+      <c r="E49" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F49" s="1"/>
@@ -1364,4 +2111,1078 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB5964C-22A6-174D-8BC9-03D288DFF102}">
+  <dimension ref="A1:H86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42" style="30" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="50.1640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="54">
+        <v>30253</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="58"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="58"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="58"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="58"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="58"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="58"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" s="58"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="H15" s="58"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="58"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="58"/>
+    </row>
+    <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A22" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="31"/>
+    </row>
+    <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A23" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="27"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="31"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="31"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="31"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="31"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="31"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="31"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="31"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="31"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="31"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="31"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="31"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="31"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="41"/>
+      <c r="D36" s="31"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="41"/>
+      <c r="D37" s="31"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="41"/>
+      <c r="D38" s="31"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="41"/>
+      <c r="D39" s="31"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="41"/>
+      <c r="D40" s="31"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="31"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="31"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="31"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="31"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="31"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="31"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="31"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="31"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="41"/>
+      <c r="D49" s="31"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="41"/>
+      <c r="D50" s="31"/>
+    </row>
+    <row r="51" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="54"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="31"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="29"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+    </row>
+    <row r="54" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A55" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="34"/>
+      <c r="C55" s="35"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="67"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="67"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="67"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="67"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="67"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="67"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="67"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="67"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="67"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="67"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="67"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" s="67"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74" s="67"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" s="67"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76" s="67"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C77" s="63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" s="66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B79" s="68"/>
+      <c r="C79" s="41"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" s="68"/>
+      <c r="C80" s="66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" s="68"/>
+      <c r="C81" s="67"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" s="28"/>
+      <c r="C82" s="67"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" s="67"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" s="67"/>
+    </row>
+    <row r="86" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="B86" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A55:C55"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C29" r:id="rId1" xr:uid="{96815EA8-956B-044E-9319-A7359DB69C5E}"/>
+    <hyperlink ref="C34" r:id="rId2" xr:uid="{5FF3C2F0-EBA9-C04A-809F-BA17A32BA86D}"/>
+    <hyperlink ref="C35" r:id="rId3" xr:uid="{AD90086E-0357-F343-87D5-30D377013546}"/>
+    <hyperlink ref="C42" r:id="rId4" xr:uid="{45524C2A-8551-8945-8EA5-500B965B443B}"/>
+    <hyperlink ref="C43" r:id="rId5" xr:uid="{37AE82EE-D25C-9E49-9152-E61CF7D5D47F}"/>
+    <hyperlink ref="C45" r:id="rId6" xr:uid="{376E36B6-92FE-A949-846D-EAB1FC24AA6D}"/>
+    <hyperlink ref="C46" r:id="rId7" xr:uid="{8ECB40F5-FE79-6046-8271-9CCF88997F99}"/>
+    <hyperlink ref="C47" r:id="rId8" xr:uid="{B6F6454D-B9B1-B448-9A75-C4819AD6C489}"/>
+    <hyperlink ref="C57" r:id="rId9" xr:uid="{D439BA03-8104-2A4C-9D79-EDABCAAD4A71}"/>
+    <hyperlink ref="C64" r:id="rId10" xr:uid="{4B91D559-095B-E04C-9091-F34B02F520C2}"/>
+    <hyperlink ref="C71" r:id="rId11" xr:uid="{E69C451F-0813-3F43-82EA-56DF423F4DB2}"/>
+    <hyperlink ref="C78" r:id="rId12" xr:uid="{44769013-9FC8-8442-8827-BA9951733F3F}"/>
+    <hyperlink ref="C80" r:id="rId13" xr:uid="{61CD200B-4089-8441-8E01-9E98E1154374}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>